--- a/biology/Zoologie/Graptolithoidea/Graptolithoidea.xlsx
+++ b/biology/Zoologie/Graptolithoidea/Graptolithoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Graptolithoidea (ou Graptolithes ou Graptolites) sont une classe de vers marins hémichordés. Cette classe, reconnue notamment par le site WoRMS, ne l'est pas par d'autres sites, tels que ITIS, qui lui préfèrent celle des Pterobranchia Lankester, 1877.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Découverts dans les années 1800, ces organismes, d'abord placés parmi les bryozoaires, furent baptisés « anges de mer » ou « ptérobranches » (le terme « graptolithe » étant à l'origine réservé aux taxons fossiles).
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette classe d'animaux est caractérisée par une reproduction par bourgeonnement (stolomisation) et par une vie libre fixée dans un tube chitineux. On note également une transformation du proboscis en couronne de tentacules (régression pour imiter les Lophophoronidés) ce qui permet un mode de nutrition suspensivore. 
 </t>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des espèces vivent en eaux froides (notamment en Antarctique), mais certaines peuvent être trouvées en eaux tempérées[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des espèces vivent en eaux froides (notamment en Antarctique), mais certaines peuvent être trouvées en eaux tempérées. 
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Histoire évolutive</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un groupe extrêmement ancien : on connaît des fossiles remontant au début du Cambrien.
 </t>
@@ -635,10 +655,12 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>On ne connaît que deux genres actuels : Cephalodiscus M'Intosh, 1882 (Cephalodiscoidea, Cephalodiscidae) et Rhabdopleura Allman, 1869 (Rhabdopleuroidea, Rhabdopleuridae)[3].
-Selon World Register of Marine Species                               (22 février 2022)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>On ne connaît que deux genres actuels : Cephalodiscus M'Intosh, 1882 (Cephalodiscoidea, Cephalodiscidae) et Rhabdopleura Allman, 1869 (Rhabdopleuroidea, Rhabdopleuridae).
+Selon World Register of Marine Species                               (22 février 2022) :
 ordre † Camaroidea
 ordre Cephalodiscoidea
 genre Cephalodiscus
